--- a/2017.11评佑/表1-8-1本科实验场所.xlsx
+++ b/2017.11评佑/表1-8-1本科实验场所.xlsx
@@ -4,11 +4,12 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="600" yWindow="225" windowWidth="20475" windowHeight="9510"/>
+    <workbookView xWindow="600" yWindow="225" windowWidth="20475" windowHeight="9510" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="实验场所（科研基地）" sheetId="1" r:id="rId1"/>
     <sheet name="填报示例" sheetId="4" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId3"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1181,7 +1182,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G88"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3741,4 +3742,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>